--- a/datasets/data_output_q.xlsx
+++ b/datasets/data_output_q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,271 +434,1811 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>num occ</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>79740</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>track_id</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2273</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>518</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>album_name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>194</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>track_name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>104</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>artist_alnum</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>60</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>album_alnum</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>35</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>track_alnum</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>27</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>popularity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>explicit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>key_exp</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mode_exp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>time_signature</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>duration_ms</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>duration_min</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>duration_min_rnd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>duration_min_rnd0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>danceability</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>danceability_rnd</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>energy_rnd</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>loudness</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>loudness_rnd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>42</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>speechiness</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>38</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>speechiness_rnd</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>24</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>acousticness</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>41</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>acousticness_rnd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>34</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>instrumentalness</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>instrumentalness_rnd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>liveness</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>liveness_rnd</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>valence_rnd</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>tempo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>tempo_rnd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Int64</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>acoustic</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>afrobeat</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>alt_rock</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>black_metal</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>bluegrass</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>blues</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>breakbeat</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>british</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cantopop</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>chicago_house</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>classical</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>club</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dance</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dancehall</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>death_metal</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>deep_house</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>detroit_techno</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>disco</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>disney</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>drum_and_bass</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dub</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>dubstep</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>edm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>electronic</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>emo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>folk</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>forro</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>funk</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>garage</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gospel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>goth</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>grindcore</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>groove</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>grunge</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>guitar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>hard_rock</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hardcore</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>hardstyle</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>heavy_metal</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>hip_hop</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>honky_tonk</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>idm</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>indian</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>indie</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>indie_pop</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>industrial</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>iranian</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>j_dance</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>j_idol</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>j_pop</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>j_rock</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>jazz</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>k_pop</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>kids</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>latin</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>latino</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>malay</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mandopop</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>metalcore</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>minimal_techno</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>mpb</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>new_age</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>opera</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pagode</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>piano</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>pop_film</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>power_pop</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>progressive_house</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>psych_rock</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>punk</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>punk_rock</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>r_n_b</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>reggae</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>reggaeton</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>rock_n_roll</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>rockabilly</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>romance</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>salsa</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>samba</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>sertanejo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>show_tunes</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>singer_songwriter</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ska</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>songwriter</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>soul</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>spanish</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>swedish</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>synth_pop</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>tango</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>techno</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>trance</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>trip_hop</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>turkish</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>world_music</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
       </c>
     </row>
   </sheetData>
